--- a/satt_standa/desnew/plantilla.xlsx
+++ b/satt_standa/desnew/plantilla.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
     <sheet name="CAUSAS Y ANALISIS A APLICAR" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$58</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author>Adriana Poveda Cortes</author>
   </authors>
   <commentList>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>PLACA</t>
   </si>
@@ -2380,121 +2380,6 @@
         <family val="2"/>
       </rPr>
       <t>cantidad de mercancia, fecha y hora  en la cual va a realizar la entrega.</t>
-    </r>
-  </si>
-  <si>
-    <t>NEP / SOLICITUD PAGO STAND BY</t>
-  </si>
-  <si>
-    <t>NED / PAGO STAND BY ( SOBRECOSTOS PENDIENTES )</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando el transportador notifica sobre costos ocacionados en el trayecto. 
-En el detalle de la información se debe </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">enviar ubicación exacta, motivo especificado por el cual se genera el sobrecosto y valor solicitado;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>si es un</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> CLIENTE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>relacionar</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>nombre del cliente</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, , </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>código del cliente  y valor solicitado.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando el transportador notifique demora en le proceso de cargue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">INDICAR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>tiempo de pernmanencia en el planta, valor solicitado y hora exacta de la cita de Cargue que le habian pactado.</t>
     </r>
   </si>
 </sst>
@@ -2853,7 +2738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2977,9 +2862,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3292,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3336,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,15 +3607,15 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>358</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>138</v>
+    <row r="22" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>301</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -3742,15 +3624,15 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -3759,15 +3641,15 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -3776,15 +3658,15 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -3793,15 +3675,15 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -3810,15 +3692,15 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -3829,13 +3711,13 @@
     </row>
     <row r="28" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>308</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>89</v>
+        <v>310</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -3844,15 +3726,15 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -3863,13 +3745,13 @@
     </row>
     <row r="30" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>312</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>91</v>
+        <v>313</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -3878,15 +3760,15 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -3895,15 +3777,15 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3914,13 +3796,13 @@
     </row>
     <row r="33" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -3931,13 +3813,13 @@
     </row>
     <row r="34" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -3946,15 +3828,15 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -3963,15 +3845,15 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -3980,15 +3862,15 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -3997,15 +3879,15 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -4014,15 +3896,15 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -4033,13 +3915,13 @@
     </row>
     <row r="40" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -4048,15 +3930,15 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -4065,15 +3947,15 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -4082,15 +3964,15 @@
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>213</v>
+    <row r="43" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>6</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>128</v>
+        <v>104</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -4099,15 +3981,15 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19">
-        <v>6</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>51</v>
+    <row r="44" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>277</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -4116,15 +3998,15 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -4133,15 +4015,15 @@
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -4150,15 +4032,15 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -4169,13 +4051,13 @@
     </row>
     <row r="48" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -4184,15 +4066,15 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
     </row>
-    <row r="49" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -4201,15 +4083,15 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -4218,15 +4100,15 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -4235,15 +4117,15 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -4252,15 +4134,15 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -4269,15 +4151,15 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -4286,15 +4168,15 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -4303,15 +4185,15 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -4320,15 +4202,15 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -4337,15 +4219,15 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -4354,83 +4236,52 @@
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
     </row>
-    <row r="59" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
-        <v>349</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
-        <v>298</v>
-      </c>
-      <c r="B63" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C59"/>
+  <autoFilter ref="A1:C58"/>
   <mergeCells count="7">
-    <mergeCell ref="D1:D59"/>
-    <mergeCell ref="E6:I59"/>
+    <mergeCell ref="D1:D58"/>
+    <mergeCell ref="E6:I58"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F4:I4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A61" r:id="rId1" display="https://web10.intrared.net/ap/satt_faro/index.php?cod_servic=3211&amp;window=central&amp;noveda=359&amp;opcion=2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/satt_standa/desnew/plantilla.xlsx
+++ b/satt_standa/desnew/plantilla.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
     <sheet name="CAUSAS Y ANALISIS A APLICAR" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,7 +28,7 @@
     <author>Adriana Poveda Cortes</author>
   </authors>
   <commentList>
-    <comment ref="B52" authorId="0" shapeId="0">
+    <comment ref="B63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>PLACA</t>
   </si>
@@ -865,9 +865,6 @@
     </r>
   </si>
   <si>
-    <t>PROBLEMAS EN LA VÍA (bajo impacto 4 horas)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 Esta causa se debe de aplicar cuando el</t>
@@ -2380,6 +2377,176 @@
         <family val="2"/>
       </rPr>
       <t>cantidad de mercancia, fecha y hora  en la cual va a realizar la entrega.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / NEGLIGENCIA CONDUCTOR</t>
+  </si>
+  <si>
+    <t>NICC / INCIDENTES APP CONTRATACION</t>
+  </si>
+  <si>
+    <t>NEC / SOLICITUD PAGO STAND BY</t>
+  </si>
+  <si>
+    <t>NER / PROBLEMAS EN LA VÍA (bajo impacto 4 horas)</t>
+  </si>
+  <si>
+    <t>NER / PARQUEADERO SIN CUPO</t>
+  </si>
+  <si>
+    <t>NER / RETRASO PLAN DE RUTA</t>
+  </si>
+  <si>
+    <t>NER / INCUMPLIMIENTO PRESENTACION EN EAL</t>
+  </si>
+  <si>
+    <t>NED / ENTREGA DE INFORMACION INCOMPLETA POR PARTE DEL TRANSPORTADOR</t>
+  </si>
+  <si>
+    <t>NED / RETORNO DE DEVOLUCION</t>
+  </si>
+  <si>
+    <t>NED / PAQUETEO EN ESPERA DE AUTORIZACION DE DESPACHO</t>
+  </si>
+  <si>
+    <t>NED / MERCANCIA EN PLATAFORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NED / PAGO STAND BY ( SOBRECOSTOS PENDIENTES </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta causa se debe de aplicar en dos fases:
+Para los casos en los cuales el número de celular registrado se encuentra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO RESPONDE, APAGADO O SIN SEÑAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>FUERA DE SERVICIO, ERRADO, INCOMPLETO, NO CORRESPONDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en el detalle de la información se debe registrar la causa de las mencionadas anteriormente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue y el conductor no entrega detalles del porque el incumplimiento.</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor notifica que tiene inconvenientes con la APP de contrtación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta causa debe de ser aplicada cuando el transportador notifica que no es posible parquear en uno de los parqueaderos autorizados por lo que debe de continuar trayecto o quedarse en otro cercano se ser asi en el registro de informaciondebe de querdar claro el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nombre del Parqueadero, Contacto de Confirmacion, Direccion  y hora exacta reinicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor se encuentra retrasado según tiempos de plan de ruta, alli debe quedar soportado el motivo del retraso</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor no esta cumpliendo el reporte fisico soportado en el plan de ruta.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta causa debe de ser aplicada cuando el Transportador notifique que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>se encuentra en el cliente pero no tiene todos los datos requeridos para reportar la novedad en descargue</t>
+    </r>
+  </si>
+  <si>
+    <t>Esta causa debe de ser aplicada cuando el Transportador notifique que tiene pendiente por retornar a planta una devolución.</t>
+  </si>
+  <si>
+    <t>Esta causa debe de ser aplicada cuando L&amp;T no ha entregado autorizacion del despacho de mercancias, por fecha, por documentos, por cita de entrega.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta causa debe de ser aplicada cuando la mercancia se encuentra en plataforma SAFERBO </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor solicita ajustes en el pago del Stand By, se debe de relacionar, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>motivo exacto y monto requerido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Esta casusa debe de ser aplicada en el momento que le conductor solicita ajustes en el pago del Stand By.  se debe de relacionar,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> motivo exacto y monto requerido.</t>
     </r>
   </si>
 </sst>
@@ -2387,7 +2554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2474,6 +2641,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2738,7 +2911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2812,6 +2985,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3174,7 +3348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3218,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,1043 +3411,1233 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>269</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>270</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>271</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>272</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>273</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>274</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>275</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>276</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>279</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>281</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>283</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>329</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>296</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>170</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>360</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>358</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>299</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>299</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>304</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>304</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="C19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>307</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>307</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="C20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>309</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>309</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>311</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>311</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="C22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>315</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>315</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="C23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>316</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>316</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="C24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>341</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>201</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>327</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>301</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>301</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>302</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>302</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>303</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>305</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>306</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>308</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>310</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>312</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
+        <v>303</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>305</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>306</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>308</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>310</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>312</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>313</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>314</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>317</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>314</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>317</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>318</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>319</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>320</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>321</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>322</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>323</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
     </row>
     <row r="40" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
+        <v>319</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>320</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>321</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="1:9" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>322</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>323</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>324</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>325</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>326</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>326</v>
-      </c>
-      <c r="B41" s="18" t="s">
+      <c r="C47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>213</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C48" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>6</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>213</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>337</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>298</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>300</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>328</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>359</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>277</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>278</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>280</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>282</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>284</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>285</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>286</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>287</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>288</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>290</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>291</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+    </row>
+    <row r="66" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>292</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>293</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>294</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>297</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
+        <v>350</v>
+      </c>
+      <c r="B70" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
-        <v>6</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
-        <v>277</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
-        <v>278</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
-        <v>280</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
-        <v>282</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
-        <v>284</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
-        <v>285</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
-        <v>286</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-    </row>
-    <row r="51" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
-        <v>287</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13">
-        <v>288</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-    </row>
-    <row r="53" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13">
-        <v>290</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13">
-        <v>291</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
-        <v>292</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
-        <v>293</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
-        <v>294</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
-        <v>297</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
-        <v>350</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="C70" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>349</v>
+      </c>
+      <c r="B71" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
-        <v>349</v>
-      </c>
-      <c r="B60" s="20" t="s">
+    <row r="72" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>298</v>
+      </c>
+      <c r="B72" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
-        <v>298</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>134</v>
-      </c>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58"/>
+  <autoFilter ref="A1:C69"/>
   <mergeCells count="7">
-    <mergeCell ref="D1:D58"/>
-    <mergeCell ref="E6:I58"/>
+    <mergeCell ref="D1:D69"/>
+    <mergeCell ref="E6:I69"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -4281,7 +4645,7 @@
     <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/satt_standa/desnew/plantilla.xlsx
+++ b/satt_standa/desnew/plantilla.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maribel.garcia\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6270" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="PLANTILLA" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CAUSAS Y ANALISIS A APLICAR" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
+    <sheet name="CAUSAS Y ANALISIS A APLICAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,17 +29,17 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B63" authorId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -54,7 +57,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ATRIBUIBLE A CLIENTE</t>
+          <t>ATRIBUIBLE A CLIENTE</t>
         </r>
       </text>
     </comment>
@@ -63,39 +66,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
-  <si>
-    <t xml:space="preserve">NUMERO DE VIAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODIGO NOVEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA NOVEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE SITIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+  <si>
+    <t>NUMERO DE VIAJE</t>
+  </si>
+  <si>
+    <t>PLACA</t>
+  </si>
+  <si>
+    <t>CODIGO NOVEDAD</t>
+  </si>
+  <si>
+    <t>FECHA NOVEDAD</t>
+  </si>
+  <si>
+    <t>NOMBRE SITIO</t>
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES GENERALES.POR FAVOR RELACIONAR: N° FACTURA - CODIGO DEL CLIENTE – CANTIDAD - REFERENCIA DE LA MERCANCIA - NOMBRE DEL CLIENTE </t>
   </si>
   <si>
-    <t xml:space="preserve">CODIGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE DE LA CAUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALISIS PARA APLICAR</t>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA CAUSA</t>
+  </si>
+  <si>
+    <t>ANALISIS PARA APLICAR</t>
   </si>
   <si>
     <t xml:space="preserve">CONVENCIONES </t>
   </si>
   <si>
-    <t xml:space="preserve">NICC / BLOQUEADO EN PARQUEADERO</t>
+    <t>NICC / BLOQUEADO EN PARQUEADERO</t>
   </si>
   <si>
     <r>
@@ -110,13 +113,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CITA DE DESCARGUE</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CITA DE DESCARGUE</t>
     </r>
     <r>
       <rPr>
@@ -129,28 +132,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NICC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVEDAD INCUMPLIMIENTO CITA DE CARGUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / CALAMIDAD DOMESTICA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando el transportador notifique</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NICC</t>
+  </si>
+  <si>
+    <t>NOVEDAD INCUMPLIMIENTO CITA DE CARGUE</t>
+  </si>
+  <si>
+    <t>NICC / CALAMIDAD DOMESTICA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando el transportador notifique</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -166,17 +169,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVEDAD ESTADIA EN PLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / COLISIÓN</t>
+      <t>En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
+    </r>
+  </si>
+  <si>
+    <t>NEP</t>
+  </si>
+  <si>
+    <t>NOVEDAD ESTADIA EN PLANTA</t>
+  </si>
+  <si>
+    <t>NICC / COLISIÓN</t>
   </si>
   <si>
     <r>
@@ -190,14 +193,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">accidente, choque, volcamiento</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>accidente, choque, volcamiento</t>
     </r>
     <r>
       <rPr>
@@ -211,13 +214,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVEDAD EN RUTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / VEHÍCULO EN MANTENIMIENTO</t>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NOVEDAD EN RUTA</t>
+  </si>
+  <si>
+    <t>NICC / VEHÍCULO EN MANTENIMIENTO</t>
   </si>
   <si>
     <r>
@@ -231,8 +234,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -248,17 +251,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVEDAD EN DESCARGUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / IMPREVISTOS EN LA VÍA</t>
+      <t>En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>NOVEDAD EN DESCARGUE</t>
+  </si>
+  <si>
+    <t>NICC / IMPREVISTOS EN LA VÍA</t>
   </si>
   <si>
     <r>
@@ -272,7 +275,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -282,18 +285,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trancón, accidente en la vía, arreglos en la vía, manifestaciones, restricciones ambientales,  eventos ciclísticos, y demás eventos que se puedan generar de esta categoría</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>trancón, accidente en la vía, arreglos en la vía, manifestaciones, restricciones ambientales,  eventos ciclísticos, y demás eventos que se puedan generar de esta categoría</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -309,11 +312,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / DEMORA ENTREGA DE CONTENEDOR</t>
+      <t>En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / DEMORA ENTREGA DE CONTENEDOR</t>
   </si>
   <si>
     <r>
@@ -327,14 +330,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">patio asignado</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>patio asignado</t>
     </r>
     <r>
       <rPr>
@@ -347,13 +350,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CITA DE CARGUE</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CITA DE CARGUE</t>
     </r>
     <r>
       <rPr>
@@ -367,7 +370,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NICC / DESCARGANDO VIAJE ANTERIOR</t>
+    <t>NICC / DESCARGANDO VIAJE ANTERIOR</t>
   </si>
   <si>
     <r>
@@ -381,8 +384,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -398,11 +401,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta y viaje que esta descargando.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / INCONSISTENCIAS EN LA CONTRATACIÓN</t>
+      <t>En el detalle de la información se debe de solicitar ubicación de donde se encuentra, tiempo estimado de llegada a planta y viaje que esta descargando.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / INCONSISTENCIAS EN LA CONTRATACIÓN</t>
   </si>
   <si>
     <r>
@@ -416,8 +419,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -433,11 +436,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe dejar registro claro de la cual es la causa final de las mencionadas.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / SIN JUSTIFICACION DEL CONDUCTOR</t>
+      <t>En el detalle de la información se debe dejar registro claro de la cual es la causa final de las mencionadas.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / SIN JUSTIFICACION DEL CONDUCTOR</t>
   </si>
   <si>
     <r>
@@ -451,14 +454,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">información suministrada por el transportador no sea clara o no brinda información que permita asegurar del cumplimiento</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>información suministrada por el transportador no sea clara o no brinda información que permita asegurar del cumplimiento</t>
     </r>
     <r>
       <rPr>
@@ -471,17 +474,17 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CITA PROGRAMADA.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / PLANILLANDO</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CITA PROGRAMADA.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / PLANILLANDO</t>
   </si>
   <si>
     <r>
@@ -495,13 +498,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">EMPRESA TERCERA</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>EMPRESA TERCERA</t>
     </r>
     <r>
       <rPr>
@@ -514,14 +517,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">documentación</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>documentación</t>
     </r>
     <r>
       <rPr>
@@ -536,7 +539,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NICC / TRANSPORTADOR SIN ARL AL DÍA</t>
+    <t>NICC / TRANSPORTADOR SIN ARL AL DÍA</t>
   </si>
   <si>
     <r>
@@ -550,13 +553,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">documentación de seguridad social al día</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>documentación de seguridad social al día</t>
     </r>
     <r>
       <rPr>
@@ -571,7 +574,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NICC / VEHÍCULO Y CONDUCTOR NO CUMPLE CON LAS CONDICIONES PARA EL CARGUE</t>
+    <t>NICC / VEHÍCULO Y CONDUCTOR NO CUMPLE CON LAS CONDICIONES PARA EL CARGUE</t>
   </si>
   <si>
     <r>
@@ -585,7 +588,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -601,11 +604,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe dejar registro claro de la cual es la causa de las mencionadas.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / NO COMUNICACIÓN</t>
+      <t>En el detalle de la información se debe dejar registro claro de la cual es la causa de las mencionadas.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / NO COMUNICACIÓN</t>
   </si>
   <si>
     <r>
@@ -620,13 +623,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NO RESPONDE, APAGADO O SIN SEÑAL</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>NO RESPONDE, APAGADO O SIN SEÑAL</t>
     </r>
     <r>
       <rPr>
@@ -639,13 +642,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FUERA DE SERVICIO, ERRADO, INCOMPLETO, NO CORRESPONDE</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>FUERA DE SERVICIO, ERRADO, INCOMPLETO, NO CORRESPONDE</t>
     </r>
     <r>
       <rPr>
@@ -658,33 +661,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NICC / NEGLIGENCIA CONDUCTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue y el conductor no entrega detalles del porque el incumplimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICC / INCIDENTES APP CONTRATACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor notifica que tiene inconvenientes con la APP de contrtación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEC / SOLICITUD PAGO STAND BY</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor solicita ajustes en el pago del Stand By.  se debe de relacionar,</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t>NICC / NEGLIGENCIA CONDUCTOR</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue y el conductor no entrega detalles del porque el incumplimiento.</t>
+  </si>
+  <si>
+    <t>NICC / INCIDENTES APP CONTRATACION</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor notifica que tiene inconvenientes con la APP de contrtación</t>
+  </si>
+  <si>
+    <t>NEC / SOLICITUD PAGO STAND BY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta casusa debe de ser aplicada en el momento que le conductor solicita ajustes en el pago del Stand By.  se debe de relacionar,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -694,7 +697,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NEP / CANCELACION DE VIAJE</t>
+    <t>NEP / CANCELACION DE VIAJE</t>
   </si>
   <si>
     <r>
@@ -708,7 +711,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -724,7 +727,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la informacion se debe de registrar el motivo por el cual se dio este evento.</t>
+      <t>En el detalle de la informacion se debe de registrar el motivo por el cual se dio este evento.</t>
     </r>
   </si>
   <si>
@@ -742,7 +745,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -758,11 +761,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle  se debe de registrar la mayor cantidad de informacion obtenida sobre el evento.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NEP / DEMORA EN CARGUE</t>
+      <t>En el detalle  se debe de registrar la mayor cantidad de informacion obtenida sobre el evento.</t>
+    </r>
+  </si>
+  <si>
+    <t>NEP / DEMORA EN CARGUE</t>
   </si>
   <si>
     <r>
@@ -776,28 +779,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">pedido, empaque, pedido no listo, pedido presenta error en el sistema y demás que se clasifiquen en esta rama</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>pedido, empaque, pedido no listo, pedido presenta error en el sistema y demás que se clasifiquen en esta rama</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.
 En el detalle de la información se debe de registrar esta causa para la respectiva gestión de L&amp;T.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NEP / MAYOR CANTIDAD DE CLIENTES A LO CONTRATADO</t>
+    <t>NEP / MAYOR CANTIDAD DE CLIENTES A LO CONTRATADO</t>
   </si>
   <si>
     <r>
@@ -811,7 +814,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -827,11 +830,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de registrar cual es la diferencia y posible solución.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NEP /NO COMUNICACIÓN</t>
+      <t>En el detalle de la información se debe de registrar cual es la diferencia y posible solución.</t>
+    </r>
+  </si>
+  <si>
+    <t>NEP /NO COMUNICACIÓN</t>
   </si>
   <si>
     <r>
@@ -846,13 +849,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NO RESPONDE, APAGADO O SIN SEÑAL</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>NO RESPONDE, APAGADO O SIN SEÑAL</t>
     </r>
     <r>
       <rPr>
@@ -865,13 +868,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FUERA DE SERVICIO, ERRADO, INCOMPLETO, NO CORRESPONDE</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>FUERA DE SERVICIO, ERRADO, INCOMPLETO, NO CORRESPONDE</t>
     </r>
     <r>
       <rPr>
@@ -884,7 +887,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NEP / SIN AUTORIZACION DE INGRESO A PLANTA</t>
+    <t>NEP / SIN AUTORIZACION DE INGRESO A PLANTA</t>
   </si>
   <si>
     <r>
@@ -898,28 +901,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">notifique no le fue autorizado el ingreso a planta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>notifique no le fue autorizado el ingreso a planta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.
 La cita debe marcarse como cumplida si esta en el horario establecido y generar correo para la respectiva gestión.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NEP / PENDIENTE CONSIGNACION ANTICIPO</t>
+    <t>NEP / PENDIENTE CONSIGNACION ANTICIPO</t>
   </si>
   <si>
     <r>
@@ -933,17 +936,17 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">no ha podido iniciar trayecto por falta de anticipo confirmar ubicación exacta del vehiculo.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / PARQUEADERO SIN CUPO</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>no ha podido iniciar trayecto por falta de anticipo confirmar ubicación exacta del vehiculo.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / PARQUEADERO SIN CUPO</t>
   </si>
   <si>
     <r>
@@ -957,38 +960,38 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nombre del Parqueadero, Contacto de Confirmacion, Direccion  y hora exacta reinicio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / RETRASO PLAN DE RUTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor se encuentra retrasado según tiempos de plan de ruta, alli debe quedar soportado el motivo del retraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / INCUMPLIMIENTO PRESENTACION EN EAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor no esta cumpliendo el reporte fisico soportado en el plan de ruta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / INSPECCION ANTINARCOTICOS</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Nombre del Parqueadero, Contacto de Confirmacion, Direccion  y hora exacta reinicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / RETRASO PLAN DE RUTA</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor se encuentra retrasado según tiempos de plan de ruta, alli debe quedar soportado el motivo del retraso</t>
+  </si>
+  <si>
+    <t>NER / INCUMPLIMIENTO PRESENTACION EN EAL</t>
+  </si>
+  <si>
+    <t>Esta casusa debe de ser aplicada en el momento que le conductor no esta cumpliendo el reporte fisico soportado en el plan de ruta.</t>
+  </si>
+  <si>
+    <t>NER / INSPECCION ANTINARCOTICOS</t>
   </si>
   <si>
     <r>
@@ -1002,8 +1005,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1023,7 +1026,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1033,26 +1036,26 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(orden público, bloqueos, trancón en carretera (validado con la polca), eventos ciclísticos, restricciones a nivel nacional, o derrumbes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / ACCIDENTE EN RUTA - CHOQUE BAJO IMPACTO (solucion novedad max 4horas)</t>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(orden público, bloqueos, trancón en carretera (validado con la polca), eventos ciclísticos, restricciones a nivel nacional, o derrumbes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / ACCIDENTE EN RUTA - CHOQUE BAJO IMPACTO (solucion novedad max 4horas)</t>
   </si>
   <si>
     <r>
@@ -1066,8 +1069,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1086,28 +1089,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">continuar trayecto a ciudad destino</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>continuar trayecto a ciudad destino</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 
 En el detalle de la información se debe indicar sitio exacto donde se encuentra el vehiculo, daño presentado, estado de la mercancia, proceso ejecutado y tiempo estimado de solución. (confirmar si se encuentran unidades de la polca en el punto).</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / ACCIDENTE EN RUTA - NOVEDAD ALTO IMPACTO (trasbordo y/o mayor a 4 horas)</t>
+    <t>NER / ACCIDENTE EN RUTA - NOVEDAD ALTO IMPACTO (trasbordo y/o mayor a 4 horas)</t>
   </si>
   <si>
     <r>
@@ -1121,8 +1124,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1138,11 +1141,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe indicar sitio exacto donde se encuentra el vehiculo,estado de salud del transportador, de la mercancia,  daño presentado, proceso ejecutado y tiempo estimado de solución.(confirmar si se encuentran unidades de la polca en el punto).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER /ACCIDENTE EN RUTA - NOVEDAD ALTO IMPACTO (fatal)</t>
+      <t>En el detalle de la información se debe indicar sitio exacto donde se encuentra el vehiculo,estado de salud del transportador, de la mercancia,  daño presentado, proceso ejecutado y tiempo estimado de solución.(confirmar si se encuentran unidades de la polca en el punto).</t>
+    </r>
+  </si>
+  <si>
+    <t>NER /ACCIDENTE EN RUTA - NOVEDAD ALTO IMPACTO (fatal)</t>
   </si>
   <si>
     <r>
@@ -1156,18 +1159,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">fuente se conozca de los hechos  en el detalle debe de registrarse la mayor cantidad de informacion obtenida, adicional a ello se debe de comunicarse inmediatamente al contacto de la alianza L&amp;T- OET.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER /COMPARENDO DOCUMENTOS (hace referencia cuando se presentan inconsistencias en la documentacion)</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fuente se conozca de los hechos  en el detalle debe de registrarse la mayor cantidad de informacion obtenida, adicional a ello se debe de comunicarse inmediatamente al contacto de la alianza L&amp;T- OET.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER /COMPARENDO DOCUMENTOS (hace referencia cuando se presentan inconsistencias en la documentacion)</t>
   </si>
   <si>
     <r>
@@ -1181,8 +1184,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1198,31 +1201,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la informacion se debe de registrar ubicación exacta,</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">placa del funcionario de la polca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, detalles del evento.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER /COMPARENDO SOBREPESO</t>
+      <t>En el detalle de la informacion se debe de registrar ubicación exacta,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>placa del funcionario de la polca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, detalles del evento.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER /COMPARENDO SOBREPESO</t>
   </si>
   <si>
     <r>
@@ -1236,14 +1239,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bascula con el mas del peso autorizado</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>bascula con el mas del peso autorizado</t>
     </r>
     <r>
       <rPr>
@@ -1256,8 +1259,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1273,11 +1276,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la informacion se debe de registrar ubicación exacta,placa del funcionario de la polca, detalles del evento.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / INFRACCIONES AL CODIGO NACIONAL DE TRANSITO(demas comparendos)</t>
+      <t>En el detalle de la informacion se debe de registrar ubicación exacta,placa del funcionario de la polca, detalles del evento.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / INFRACCIONES AL CODIGO NACIONAL DE TRANSITO(demas comparendos)</t>
   </si>
   <si>
     <r>
@@ -1291,8 +1294,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1313,22 +1316,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / VARADO BAJO IMPACTO (solucion a novedad menor de 4 horas)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa debe de ser aplicada cuando el</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NER / VARADO BAJO IMPACTO (solucion a novedad menor de 4 horas)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa debe de ser aplicada cuando el</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1343,12 +1346,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. 
+      <t>. 
 En el detalle de la información se debe indicar sitio exacto donde se encuentra el vehiculo, daño presentado, proceso ejecutado y tiempo estimado de solución.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER /VARADO ALTO IMPACTO (solucion a novedad mayor a 4 horas trasbordo)</t>
+    <t>NER /VARADO ALTO IMPACTO (solucion a novedad mayor a 4 horas trasbordo)</t>
   </si>
   <si>
     <r>
@@ -1362,8 +1365,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1384,7 +1387,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / PROBLEMAS EN LA VÍA (bajo impacto 4 horas)</t>
+    <t>NER / PROBLEMAS EN LA VÍA (bajo impacto 4 horas)</t>
   </si>
   <si>
     <r>
@@ -1399,8 +1402,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1419,14 +1422,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">confirmada la solución sea inferior a 4 horas</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>confirmada la solución sea inferior a 4 horas</t>
     </r>
     <r>
       <rPr>
@@ -1440,14 +1443,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(polca, ristra, EAL, etc</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(polca, ristra, EAL, etc</t>
     </r>
     <r>
       <rPr>
@@ -1461,7 +1464,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / PROBLEMAS EN LA VÍA (alto impacto mayor 4 horas/desvio ruta-flete)</t>
+    <t>NER / PROBLEMAS EN LA VÍA (alto impacto mayor 4 horas/desvio ruta-flete)</t>
   </si>
   <si>
     <r>
@@ -1475,8 +1478,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1492,18 +1495,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe indicar sitio donde se encuentra el vehículo, estado de la mercancía, e</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vento exacto que se está presentando y nombre de la entidad con la que fue confirmada (polca, ristra, EAL, etc</t>
+      <t>En el detalle de la información se debe indicar sitio donde se encuentra el vehículo, estado de la mercancía, e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>vento exacto que se está presentando y nombre de la entidad con la que fue confirmada (polca, ristra, EAL, etc</t>
     </r>
     <r>
       <rPr>
@@ -1517,7 +1520,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / PROBLEMAS EN LA VÍA - EXTERNA PARO</t>
+    <t>NER / PROBLEMAS EN LA VÍA - EXTERNA PARO</t>
   </si>
   <si>
     <r>
@@ -1531,8 +1534,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1548,12 +1551,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe indicar sitio donde se encuentra el vehículo, estado de la mercancía, evento exacto que se está presentando y nombre de la entidad con la que fue</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+      <t>En el detalle de la información se debe indicar sitio donde se encuentra el vehículo, estado de la mercancía, evento exacto que se está presentando y nombre de la entidad con la que fue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1563,22 +1566,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / CALAMIDAD DOMESTICA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NER / CALAMIDAD DOMESTICA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1594,11 +1597,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe indicar nombre exacto de donde se encuentra el vehiculo, estado de la mercancia, tiempo estimado de reinicio de ruta.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / INCUMPLIMIENTO PLAN DE VIAJE</t>
+      <t>En el detalle de la información se debe indicar nombre exacto de donde se encuentra el vehiculo, estado de la mercancia, tiempo estimado de reinicio de ruta.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / INCUMPLIMIENTO PLAN DE VIAJE</t>
   </si>
   <si>
     <r>
@@ -1612,14 +1615,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">transportador tome otro corredor no estipulado en plan de ruta, realice cambio de conductor o de vehículo sin previa autorización, lavada del vehículo no permitido, transbordos No Autorizados, pernoctaciones que afecten la entrega o en horarios no habituales</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>transportador tome otro corredor no estipulado en plan de ruta, realice cambio de conductor o de vehículo sin previa autorización, lavada del vehículo no permitido, transbordos No Autorizados, pernoctaciones que afecten la entrega o en horarios no habituales</t>
     </r>
     <r>
       <rPr>
@@ -1632,13 +1635,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exportación</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Exportación</t>
     </r>
     <r>
       <rPr>
@@ -1651,8 +1654,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1672,7 +1675,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / PENDIENTE CONSIGNACION ANTICIPO</t>
+    <t>NER / PENDIENTE CONSIGNACION ANTICIPO</t>
   </si>
   <si>
     <r>
@@ -1686,8 +1689,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1703,32 +1706,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe indicar sitio donde se encuentra el vehículo.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER /PUESTOS DE CONTROL POR ORGANISMOS DEL ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando e</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">l transportador notifique que se encuentra detenido por las autoridades competentes en carretera con el fin de realizar procedimientos establecidos por la ley (incautación de la mercancia por la DIAN).</t>
+      <t>En el detalle de la información se debe indicar sitio donde se encuentra el vehículo.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER /PUESTOS DE CONTROL POR ORGANISMOS DEL ESTADO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>l transportador notifique que se encuentra detenido por las autoridades competentes en carretera con el fin de realizar procedimientos establecidos por la ley (incautación de la mercancia por la DIAN).</t>
     </r>
     <r>
       <rPr>
@@ -1741,13 +1744,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exportación</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Exportación</t>
     </r>
     <r>
       <rPr>
@@ -1760,14 +1763,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">requiera abrir precinto</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>requiera abrir precinto</t>
     </r>
     <r>
       <rPr>
@@ -1780,8 +1783,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1801,8 +1804,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1813,7 +1816,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / VEHICULO EN OPERATIVO</t>
+    <t>NER / VEHICULO EN OPERATIVO</t>
   </si>
   <si>
     <r>
@@ -1827,8 +1830,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1844,12 +1847,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+      <t>En el detalle de la información se debe de</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1860,7 +1863,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / HURTO-SAQUEO</t>
+    <t>NER / HURTO-SAQUEO</t>
   </si>
   <si>
     <r>
@@ -1874,8 +1877,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -1894,14 +1897,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">comunicarse</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>comunicarse</t>
     </r>
     <r>
       <rPr>
@@ -1914,14 +1917,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">contacto de la alianza L&amp;T- OET</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>contacto de la alianza L&amp;T- OET</t>
     </r>
     <r>
       <rPr>
@@ -1935,10 +1938,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / NO COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / REPROGRAMACIÓN DE CITA</t>
+    <t>NER / NO COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>NER / REPROGRAMACIÓN DE CITA</t>
   </si>
   <si>
     <r>
@@ -1953,13 +1956,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NO</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>NO</t>
     </r>
     <r>
       <rPr>
@@ -1972,13 +1975,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CUMPLIR</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CUMPLIR</t>
     </r>
     <r>
       <rPr>
@@ -1991,7 +1994,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2011,14 +2014,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">detalle</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>detalle</t>
     </r>
     <r>
       <rPr>
@@ -2031,14 +2034,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">transportador no pudo cumplir,</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>transportador no pudo cumplir,</t>
     </r>
     <r>
       <rPr>
@@ -2052,7 +2055,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NER / SEGUIMIENTO EN RUTA</t>
+    <t>NER / SEGUIMIENTO EN RUTA</t>
   </si>
   <si>
     <r>
@@ -2066,18 +2069,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">trayecto sin novedad.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NER / PERNOCTACIÓN</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>trayecto sin novedad.</t>
+    </r>
+  </si>
+  <si>
+    <t>NER / PERNOCTACIÓN</t>
   </si>
   <si>
     <r>
@@ -2091,7 +2094,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2110,34 +2113,34 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">de lo contrario se debe aplicar REPROGRAMACIÓN DE CITA y o INCUMPLIMIENTO DE VIAJE</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>de lo contrario se debe aplicar REPROGRAMACIÓN DE CITA y o INCUMPLIMIENTO DE VIAJE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2152,7 +2155,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / ENTREGA DE INFORMACION INCOMPLETA POR PARTE DEL TRANSPORTADOR</t>
+    <t>NED / ENTREGA DE INFORMACION INCOMPLETA POR PARTE DEL TRANSPORTADOR</t>
   </si>
   <si>
     <r>
@@ -2166,30 +2169,30 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">se encuentra en el cliente pero no tiene todos los datos requeridos para reportar la novedad en descargue</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / RETORNO DE DEVOLUCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta causa debe de ser aplicada cuando el Transportador notifique que tiene pendiente por retornar a planta una devolución.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / PAQUETEO EN ESPERA DE AUTORIZACION DE DESPACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta causa debe de ser aplicada cuando L&amp;T no ha entregado autorizacion del despacho de mercancias, por fecha, por documentos, por cita de entrega.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / MERCANCIA EN PLATAFORMA</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>se encuentra en el cliente pero no tiene todos los datos requeridos para reportar la novedad en descargue</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / RETORNO DE DEVOLUCION</t>
+  </si>
+  <si>
+    <t>Esta causa debe de ser aplicada cuando el Transportador notifique que tiene pendiente por retornar a planta una devolución.</t>
+  </si>
+  <si>
+    <t>NED / PAQUETEO EN ESPERA DE AUTORIZACION DE DESPACHO</t>
+  </si>
+  <si>
+    <t>Esta causa debe de ser aplicada cuando L&amp;T no ha entregado autorizacion del despacho de mercancias, por fecha, por documentos, por cita de entrega.</t>
+  </si>
+  <si>
+    <t>NED / MERCANCIA EN PLATAFORMA</t>
   </si>
   <si>
     <t xml:space="preserve">Esta causa debe de ser aplicada cuando la mercancia se encuentra en plataforma SAFERBO </t>
@@ -2209,26 +2212,26 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">motivo exacto y monto requerido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / COMPARENDO ZONA AMARILLA</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>motivo exacto y monto requerido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / COMPARENDO ZONA AMARILLA</t>
   </si>
   <si>
     <r>
@@ -2242,14 +2245,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">se encuentra en el cliente y le fue impuesto el comparendo por esperar descargue</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>se encuentra en el cliente y le fue impuesto el comparendo por esperar descargue</t>
     </r>
     <r>
       <rPr>
@@ -2263,8 +2266,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2275,7 +2278,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEMORA EN RECIBO</t>
+    <t>NED / DEMORA EN RECIBO</t>
   </si>
   <si>
     <r>
@@ -2289,8 +2292,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2306,7 +2309,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de registrar hora de llegada, nombre del cliente, motivo por el cual se presenta la demora, ciudad.</t>
+      <t>En el detalle de la información se debe de registrar hora de llegada, nombre del cliente, motivo por el cual se presenta la demora, ciudad.</t>
     </r>
   </si>
   <si>
@@ -2325,8 +2328,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2346,8 +2349,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2358,7 +2361,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEVOLUCION-INCUMPLIMIENTO FECHA Y/O HORA DE ENTREGA</t>
+    <t>NED / DEVOLUCION-INCUMPLIMIENTO FECHA Y/O HORA DE ENTREGA</t>
   </si>
   <si>
     <r>
@@ -2372,8 +2375,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2393,14 +2396,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, colo</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, colo</t>
     </r>
     <r>
       <rPr>
@@ -2414,7 +2417,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEVOLUCION-MERCANCIA POR IMPERFECTOS DE FABRICA</t>
+    <t>NED / DEVOLUCION-MERCANCIA POR IMPERFECTOS DE FABRICA</t>
   </si>
   <si>
     <r>
@@ -2428,8 +2431,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2449,14 +2452,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color</t>
     </r>
     <r>
       <rPr>
@@ -2470,7 +2473,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEVOLUCION-MERCANCIA POR ROTURA</t>
+    <t>NED / DEVOLUCION-MERCANCIA POR ROTURA</t>
   </si>
   <si>
     <r>
@@ -2484,14 +2487,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">el seguimiento el transportador manifiesta que el producto presenta averías (rotura)</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>el seguimiento el transportador manifiesta que el producto presenta averías (rotura)</t>
     </r>
     <r>
       <rPr>
@@ -2505,8 +2508,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2527,22 +2530,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEVOLUCION-NOVEDAD EN EMPAQUE Y/O EMBALAJE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando al realizar el seguimiento</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NED / DEVOLUCION-NOVEDAD EN EMPAQUE Y/O EMBALAJE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando al realizar el seguimiento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2562,14 +2565,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color</t>
     </r>
     <r>
       <rPr>
@@ -2583,7 +2586,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED /DEVOLUCION-PEDIDO NO SOLICITADO</t>
+    <t>NED /DEVOLUCION-PEDIDO NO SOLICITADO</t>
   </si>
   <si>
     <r>
@@ -2597,8 +2600,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2614,11 +2617,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de solicitar ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / DEVOLUCION-POR NOVEDAD EN RECIBO EN EL CLIENTE</t>
+      <t>En el detalle de la información se debe de solicitar ciudad, nombre del cliente, código del cliente, factura, referencia, cantidad, color.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / DEVOLUCION-POR NOVEDAD EN RECIBO EN EL CLIENTE</t>
   </si>
   <si>
     <r>
@@ -2632,14 +2635,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CLIENTE  tiene inconvenientes para recibir la mercancia como (tienda en Inventario, falta de espacio en el cliente, neglicencia por el cliente</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CLIENTE  tiene inconvenientes para recibir la mercancia como (tienda en Inventario, falta de espacio en el cliente, neglicencia por el cliente</t>
     </r>
     <r>
       <rPr>
@@ -2653,8 +2656,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2664,7 +2667,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / FACTURA FUERA DE ALIANZA</t>
+    <t>NED / FACTURA FUERA DE ALIANZA</t>
   </si>
   <si>
     <r>
@@ -2678,8 +2681,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2699,27 +2702,27 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, y nombre de la rexpedidora y nombre del funcionario que le brindo la información (si es viable)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / MAYOR VALOR EN DESCARGUE</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, y nombre de la rexpedidora y nombre del funcionario que le brindo la información (si es viable)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / MAYOR VALOR EN DESCARGUE</t>
   </si>
   <si>
     <r>
@@ -2733,14 +2736,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">el cliente tiene inconvenientes con el descargue ya que el valor que le están cobrando es superior al notificado, debe de contratar mayor número de personas para realizar este proceso</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>el cliente tiene inconvenientes con el descargue ya que el valor que le están cobrando es superior al notificado, debe de contratar mayor número de personas para realizar este proceso</t>
     </r>
     <r>
       <rPr>
@@ -2754,18 +2757,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, codigo del cliente, n° de factura y valor adicional.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / NO RECIBO-ORDEN DE COMPRA VENCIDAS</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, codigo del cliente, n° de factura y valor adicional.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / NO RECIBO-ORDEN DE COMPRA VENCIDAS</t>
   </si>
   <si>
     <r>
@@ -2779,13 +2782,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CLIENTE SODIMAC</t>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>CLIENTE SODIMAC</t>
     </r>
     <r>
       <rPr>
@@ -2799,22 +2802,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / NOVEDAD EN DOCUMENTOS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando al realizar el seguimiento el Transportador notifique que en presenta</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NED / NOVEDAD EN DOCUMENTOS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando al realizar el seguimiento el Transportador notifique que en presenta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2834,14 +2837,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ubicación exacta, nombre del cliente, y demás información que tenga del cliente.</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ubicación exacta, nombre del cliente, y demás información que tenga del cliente.</t>
     </r>
   </si>
   <si>
@@ -2859,8 +2862,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2880,33 +2883,33 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, nombre del cliente, código del cliente, factura.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED/ ZONA DE DIFICIL ACCESO PARA EL DESCARGUE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando al realizar el seguimiento el transportador manifiesta</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, nombre del cliente, código del cliente, factura.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED/ ZONA DE DIFICIL ACCESO PARA EL DESCARGUE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando al realizar el seguimiento el transportador manifiesta</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2926,14 +2929,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ombre del cliente, ubicación exacta, código del cliente, n° de factura y el mayor detalle que se pueda registrar</t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ombre del cliente, ubicación exacta, código del cliente, n° de factura y el mayor detalle que se pueda registrar</t>
     </r>
     <r>
       <rPr>
@@ -2947,22 +2950,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / DEVOLUCION POR ESTIBAS VACIAS </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa se debe de aplicar cuando el transportador solicita</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+    <t>NED / DEVOLUCION POR ESTIBAS VACIAS </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Esta causa se debe de aplicar cuando el transportador solicita</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -2982,18 +2985,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">n</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -3004,7 +3007,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NED / FALTA DE CORREO DE AUTORIZACION DE RECIBO DE MERCANCIA </t>
+    <t>NED / FALTA DE CORREO DE AUTORIZACION DE RECIBO DE MERCANCIA </t>
   </si>
   <si>
     <r>
@@ -3018,8 +3021,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -3039,18 +3042,18 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ciudad, nombre del cliente, código del cliente, factura.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NED / RETORNO DE DEVOLUCION </t>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ciudad, nombre del cliente, código del cliente, factura.</t>
+    </r>
+  </si>
+  <si>
+    <t>NED / RETORNO DE DEVOLUCION </t>
   </si>
   <si>
     <r>
@@ -3064,8 +3067,8 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
@@ -3085,25 +3088,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">cantidad de mercancia, fecha y hora  en la cual va a realizar la entrega.</t>
-    </r>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>cantidad de mercancia, fecha y hora  en la cual va a realizar la entrega.</t>
+    </r>
+  </si>
+  <si>
+    <t>NICC / PENDIENTE ENTREGA DEVOLUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue porque tiene pendiente entregar una devolución </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3112,23 +3118,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3136,8 +3127,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3152,7 +3143,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
@@ -3160,14 +3151,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -3180,7 +3171,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3188,22 +3179,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -3245,257 +3236,245 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="double"/>
-      <bottom style="medium"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3554,1331 +3533,1653 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="16.140625"/>
+    <col min="2" max="2" width="6.140625"/>
+    <col min="3" max="3" width="16"/>
+    <col min="4" max="4" width="14.7109375"/>
+    <col min="5" max="5" width="12.5703125"/>
+    <col min="6" max="6" width="33.140625"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="119.008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.8582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" width="20.85546875" style="10"/>
+    <col min="2" max="2" width="43.5703125" style="11"/>
+    <col min="3" max="3" width="119" style="12"/>
+    <col min="4" max="4" width="3.85546875"/>
+    <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>269</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>270</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>271</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>272</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>273</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>274</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>275</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>276</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>279</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>281</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>283</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>329</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>296</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>170</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>360</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>361</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>358</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>299</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
         <v>304</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="n">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>307</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
         <v>309</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="n">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
         <v>311</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
         <v>315</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="n">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
         <v>316</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
         <v>341</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="n">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>201</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B27" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="n">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
         <v>327</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B28" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>301</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>302</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>303</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>305</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
         <v>306</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
         <v>308</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>310</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B35" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <v>312</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>313</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B37" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>314</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B38" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
         <v>317</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B39" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
         <v>318</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B40" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>319</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B41" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
         <v>320</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <v>321</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <v>322</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>323</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>324</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
         <v>325</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B47" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
         <v>326</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
         <v>213</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B49" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="n">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
         <v>6</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B50" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="n">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
         <v>337</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B51" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="n">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
         <v>298</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B52" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="n">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
         <v>300</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B53" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="n">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
         <v>328</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-    </row>
-    <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="n">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
         <v>359</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B55" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="n">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
         <v>277</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B56" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-    </row>
-    <row r="56" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23" t="n">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
         <v>278</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B57" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-    </row>
-    <row r="57" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="n">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
         <v>280</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B58" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C58" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-    </row>
-    <row r="58" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23" t="n">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
         <v>282</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B59" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="n">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
         <v>284</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B60" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="n">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="80.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>285</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B61" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-    </row>
-    <row r="61" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="n">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
         <v>286</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B62" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-    </row>
-    <row r="62" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="n">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
         <v>287</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B63" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-    </row>
-    <row r="63" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="n">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
         <v>288</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B64" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-    </row>
-    <row r="64" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="n">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
         <v>290</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B65" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-    </row>
-    <row r="65" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="23" t="n">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
         <v>291</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B66" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C66" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-    </row>
-    <row r="66" customFormat="false" ht="54.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="23" t="n">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
         <v>292</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B67" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-    </row>
-    <row r="67" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="23" t="n">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
         <v>293</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B68" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C68" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="23" t="n">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
         <v>294</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B69" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-    </row>
-    <row r="69" customFormat="false" ht="81.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="n">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="81" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
         <v>297</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B70" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-    </row>
-    <row r="70" customFormat="false" ht="68.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="n">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
         <v>350</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B71" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C71" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23" t="n">
+    <row r="72" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
         <v>349</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B72" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23" t="n">
+    <row r="73" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
         <v>298</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B73" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C69"/>
+  <autoFilter ref="A1:C70"/>
   <mergeCells count="7">
-    <mergeCell ref="D1:D69"/>
+    <mergeCell ref="D1:D70"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="E6:I69"/>
+    <mergeCell ref="E6:I70"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/satt_standa/desnew/plantilla.xlsx
+++ b/satt_standa/desnew/plantilla.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6270" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8010" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
     <sheet name="CAUSAS Y ANALISIS A APLICAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$69</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$66</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">'CAUSAS Y ANALISIS A APLICAR'!$A$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +35,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B64" authorId="0" shapeId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>NUMERO DE VIAJE</t>
   </si>
@@ -661,12 +661,6 @@
     </r>
   </si>
   <si>
-    <t>NICC / NEGLIGENCIA CONDUCTOR</t>
-  </si>
-  <si>
-    <t>Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue y el conductor no entrega detalles del porque el incumplimiento.</t>
-  </si>
-  <si>
     <t>NICC / INCIDENTES APP CONTRATACION</t>
   </si>
   <si>
@@ -1170,9 +1164,6 @@
     </r>
   </si>
   <si>
-    <t>NER /COMPARENDO DOCUMENTOS (hace referencia cuando se presentan inconsistencias en la documentacion)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1280,42 +1271,6 @@
     </r>
   </si>
   <si>
-    <t>NER / INFRACCIONES AL CODIGO NACIONAL DE TRANSITO(demas comparendos)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Esta causa debe de ser aplicada cuando el transportador reporte que se encuentra detenido por infraciones al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">codigo de transito  (hace referencia a los demas comparendos que se puedan presentar por infraccion del transportador).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">En el detalle de la informacion se debe de registrar ubicación exacta,placa del funcionario de la polca, detalles del evento.
-</t>
-    </r>
-  </si>
-  <si>
     <t>NER / VARADO BAJO IMPACTO (solucion a novedad menor de 4 horas)</t>
   </si>
   <si>
@@ -1707,112 +1662,6 @@
         <charset val="1"/>
       </rPr>
       <t>En el detalle de la información se debe indicar sitio donde se encuentra el vehículo.</t>
-    </r>
-  </si>
-  <si>
-    <t>NER /PUESTOS DE CONTROL POR ORGANISMOS DEL ESTADO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Esta causa se debe de aplicar cuando e</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>l transportador notifique que se encuentra detenido por las autoridades competentes en carretera con el fin de realizar procedimientos establecidos por la ley (incautación de la mercancia por la DIAN).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Para la modalidad </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Exportación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> en caso que se </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>requiera abrir precinto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">s se debe notificar a la persona encargada de alianza entre OET - L&amp;T </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">voz a voz en horario no establecido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">En el detalle de la información se debe de registrar ubicación exacta, placa del </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">funcionario de la polca, detalles del evento.
-</t>
     </r>
   </si>
   <si>
@@ -2802,52 +2651,6 @@
     </r>
   </si>
   <si>
-    <t>NED / NOVEDAD EN DOCUMENTOS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Esta causa se debe de aplicar cuando al realizar el seguimiento el Transportador notifique que en presenta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> inconvenientes en el cliente porque la documentación (le falta una hoja, se le extravió las facturas, la documentación entregada no le llego completa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">y demás que se asocien a esta rama).
-En el detalle de la información se debe de registrar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ubicación exacta, nombre del cliente, y demás información que tenga del cliente.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">NED/ VALIDAR DIRECCION DE ENTREGA </t>
   </si>
   <si>
@@ -3103,6 +2906,9 @@
   </si>
   <si>
     <t xml:space="preserve">Esta casusa debe de ser aplicada en el momento que le conductor va a incumplir la cita de cargue porque tiene pendiente entregar una devolución </t>
+  </si>
+  <si>
+    <t>NER /COMPARENDOS EN LA VIA (hace referencia cuando se presentan inconsistencias en la documentacion)</t>
   </si>
 </sst>
 </file>
@@ -3379,27 +3185,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3468,6 +3253,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3567,7 +3373,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>5229225</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3867,7 +3673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3883,22 +3689,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3910,1272 +3716,1204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="10"/>
-    <col min="2" max="2" width="43.5703125" style="11"/>
-    <col min="3" max="3" width="119" style="12"/>
+    <col min="1" max="1" width="20.85546875" style="3"/>
+    <col min="2" max="2" width="43.5703125" style="4"/>
+    <col min="3" max="3" width="119" style="5"/>
     <col min="4" max="4" width="3.85546875"/>
     <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>269</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>270</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>271</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>272</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>273</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="D6" s="24"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>274</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>275</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:9" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>276</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>279</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>281</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>283</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>329</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>296</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>170</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>360</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>360</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>361</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>358</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>361</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>358</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>299</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>299</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>304</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
-        <v>304</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>307</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
-        <v>307</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>309</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
-        <v>309</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>311</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>311</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>315</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23">
-        <v>315</v>
-      </c>
-      <c r="B24" s="24" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>316</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>316</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>341</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
-        <v>341</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>201</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
-        <v>201</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>327</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
-        <v>327</v>
-      </c>
-      <c r="B28" s="24" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>301</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>301</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>302</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>302</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>303</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>303</v>
-      </c>
-      <c r="B31" s="16" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>305</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>305</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>365</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>308</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>306</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>312</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>308</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>313</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>310</v>
-      </c>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>314</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>312</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="C36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>317</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>313</v>
-      </c>
-      <c r="B37" s="28" t="s">
+      <c r="C37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>318</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="81" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>314</v>
-      </c>
-      <c r="B38" s="28" t="s">
+      <c r="C38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>319</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>317</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="C39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>320</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>318</v>
-      </c>
-      <c r="B40" s="28" t="s">
+      <c r="C40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>321</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>319</v>
-      </c>
-      <c r="B41" s="28" t="s">
+      <c r="C41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>323</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>320</v>
-      </c>
-      <c r="B42" s="28" t="s">
+      <c r="C42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>324</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>321</v>
-      </c>
-      <c r="B43" s="28" t="s">
+      <c r="C43" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>325</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>322</v>
-      </c>
-      <c r="B44" s="28" t="s">
+      <c r="C44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>326</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>323</v>
-      </c>
-      <c r="B45" s="28" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>213</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>324</v>
-      </c>
-      <c r="B46" s="28" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22">
+        <v>6</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>325</v>
-      </c>
-      <c r="B47" s="28" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>337</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>326</v>
-      </c>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>298</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>213</v>
-      </c>
-      <c r="B49" s="28" t="s">
+      <c r="C49" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>300</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="81" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
-        <v>6</v>
-      </c>
-      <c r="B50" s="28" t="s">
+      <c r="C50" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>328</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>337</v>
-      </c>
-      <c r="B51" s="30" t="s">
+      <c r="C51" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>359</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="C52" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>277</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>278</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>280</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>282</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>284</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>285</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>286</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>287</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>288</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>290</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="54" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>291</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>292</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
+        <v>294</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>297</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
+        <v>350</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="40.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <v>349</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
         <v>298</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>300</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
-        <v>328</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
-        <v>359</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
-        <v>277</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
-        <v>278</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
-        <v>280</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
-        <v>282</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
-        <v>284</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="80.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
-        <v>285</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
-        <v>286</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
-        <v>287</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>288</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="23">
-        <v>290</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="53.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="23">
-        <v>291</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <v>292</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A68" s="23">
-        <v>293</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="25" t="s">
+      <c r="B69" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>294</v>
-      </c>
-      <c r="B69" s="30" t="s">
+      <c r="C69" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="81" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
-        <v>297</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <v>350</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="39.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
-        <v>349</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
-        <v>298</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>158</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C70"/>
+  <autoFilter ref="A1:C69"/>
   <mergeCells count="7">
-    <mergeCell ref="D1:D70"/>
+    <mergeCell ref="D1:D66"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="E6:I70"/>
+    <mergeCell ref="E6:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
